--- a/excel/tokopedia.xlsx
+++ b/excel/tokopedia.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="419">
   <si>
     <t xml:space="preserve">Nama Toko: </t>
   </si>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Tanggal Penarikan Laporan:</t>
   </si>
   <si>
-    <t xml:space="preserve">18 Dec 2023 12:51:48</t>
+    <t xml:space="preserve">18 Dec 2023 19:21:02</t>
   </si>
   <si>
     <t xml:space="preserve">Nomor</t>
@@ -273,7 +273,10 @@
     <t xml:space="preserve">18-12-2023 10:54:50</t>
   </si>
   <si>
-    <t xml:space="preserve">Menunggu Pickup</t>
+    <t xml:space="preserve">Pesanan Selesai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:55:19</t>
   </si>
   <si>
     <t xml:space="preserve">Java Super Food Nori Tabur Rumput Laut Panggang 60gr HALAL - Pedas</t>
@@ -324,9 +327,6 @@
     <t xml:space="preserve">18-12-2023 11:10:28</t>
   </si>
   <si>
-    <t xml:space="preserve">Pesanan Diproses</t>
-  </si>
-  <si>
     <t xml:space="preserve">Edamame Frozen Mitratani Export Quality 500 gr - Tidak Asin</t>
   </si>
   <si>
@@ -351,6 +351,12 @@
     <t xml:space="preserve">Kota Administrasi Jakarta Pusat</t>
   </si>
   <si>
+    <t xml:space="preserve">GK-11-742179944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:12:12</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
@@ -360,6 +366,9 @@
     <t xml:space="preserve">18-12-2023 11:45:47</t>
   </si>
   <si>
+    <t xml:space="preserve">Pesanan Dikirim</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hinode Teriyaki Sauce 400ml</t>
   </si>
   <si>
@@ -387,6 +396,12 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
+    <t xml:space="preserve">TKP01-C0072PR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:49:08</t>
+  </si>
+  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
@@ -396,6 +411,9 @@
     <t xml:space="preserve">18-12-2023 11:55:45</t>
   </si>
   <si>
+    <t xml:space="preserve">16:25:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Premium Yakiniku - US Certified Angus Beef 250 Gr</t>
   </si>
   <si>
@@ -415,6 +433,12 @@
   </si>
   <si>
     <t xml:space="preserve">Jl* Tam** Mal*** Sela*** 1 bl** A3/*** Mal*** Sar** Dur** Saw*** Jaka*** Tim** 1346******* Saw** 134**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GK-11-742176609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:01:28</t>
   </si>
   <si>
     <t xml:space="preserve">Cetakan Onigiri nasi kepal onigiri Rice Mold isi 2 pcs</t>
@@ -460,6 +484,612 @@
     <t xml:space="preserve">Kota Administrasi Jakarta Selatan</t>
   </si>
   <si>
+    <t xml:space="preserve">GK-11-742176278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631069107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 12:58:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dried Cut Wakame 500 gr | Rumput Laut Kering 500gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWAK500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhey*** may***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********8278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAU*** DHEY***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cipi**** Bes** Uta*** Keca***** Jati******* Ko** Jaka*** Tim*** Dae*** Khu*** Ibuk*** Jaka*** [Tok****** Not** j* Bek*** tim** v R* 1* / R* 0* / NO.1************* 134**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GK-11-742179841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:11:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSF Gochugaru - Bubuk Cabe Korea / Chili Powder 1 KG - Kasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631087560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 13:06:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikkoman Soy Sauce - Kecap Asin Khas Jepang 250 ML Share Size HALAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSOY6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiq** Jab**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********2710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiq**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl.a****** 4 no.** RT:0***** . tanj*** dur** Uta** . Jaka*** bara******** 114**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota Administrasi Jakarta Barat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKP01-6QT2GQHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:50:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631117641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 13:19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Japanese Curry Roux- Bumbu Kari ala Jepang Halal- 300 g - Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne** Ye** Suma***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********0550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ye**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kp* Gent*** page******* wet** R* 0* R* 1* De** Page******* Ke* Page******* Ka** Tasi******* 461** (War*** te* Ochi************* 461**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kab. Tasikmalaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKP01-F16220C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:50:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631123743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 13:23:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pran**** Put**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********0864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl.z***** ahm** gg.i***** no** Sada******************** Uta** 227**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota Padangsidimpuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumatera Utara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKP01-Y4YC9VW4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:50:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Japanese Curry Roux- Bumbu Kari ala Jepang Halal- 300 g - Spicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3630849741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 13:31:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menunggu Pickup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katsuobushi 500gr Premium Quality | Katsubushi 500gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAT500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end*** lest***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">********0525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eg** Wil**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl* swat***** v,** 1* R* 00** clus*** gri** jati**** rum** n* A* Jati***** Jati***** Ko** Bek*** (Clu**** gri*** Dek** konv************** 174**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnterAja(Same Day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10008154397780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:41:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631158763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 13:36:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicchi Nichi Bumbu Kare / Kari Jepang 200gr (Rasa Ayam, Sapi,Jamur) - Ayam Tdk Pedas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ri** Praj*****</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********3596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tam** Krak****** Wari*********** Wari*********** Sera*** Bant*** 424** [Tok****** Not** Bl** H1* n* 1* R* 0* R* 0* ds/*** Wari**** Kur*** Ser*** Ban]*************** 424**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kab. Serang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKP01-W2Q127CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:57:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631165041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 13:38:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chung Jung One Daesang Miyeok- Dried Seaweed- Rumput Laut 50gr | 100gr - 50gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CJO001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bin*** arif*******</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********1490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j* rem*** l no* 5* rt0** rw** Ke* ten*** ke* Kra*** jat** Jaka*** tim** (ru*** gent*** biru******** Ja** 135**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahana(Service Normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7KWGMDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:36:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631178596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 13:44:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kombu | Konbu | Dashima | Kelp | Dry Seaweed Dashi 50gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOMB50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yut*** jom***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********8672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yut*** Jom***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********6872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl* Ra** Uluw*** 1 NO15**************** Kedo******* Kut** Kedo**************** No** sebe*** Dap** Pri** Kedo******* Bro** Ga** &amp; Horn****** 803**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kab. Badung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNE(Reguler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLJR3DU7UKYM11P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:40:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katsuobushi 50gr Premium Quality | Katsubushi 50gr SHARE SIZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAT50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631271272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 14:23:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:23:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia** Dr*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********3839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia** Dar***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komp*** Tam** Berd***** Sent*** Bl** F No* 7 R* 00* R* 0* Jl* Pemu******* Gad*** 132**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GK-11-742206737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:35:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikkoman Garli Teriyaki Sauce - Saus Teriyaki Bawang 300 gr HALAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGAR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikkoman Sweet Sauce Mirin - Saus Manis Khas Jepang 300 gr HALAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMIR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikkoman Soy Sauce - Kecap Asin Khas Jepang 150 ml Dispenser HALAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSOY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631283711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 14:28:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSF Gochugaru - Bubuk Cabe Korea / Chili Powder Repack 250gr | 100gr - Halus, 250gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********1389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl* Rw* Se** 2* Ke** Joh** Bar** Ko** Jaka*** Pus*** Dae*** Khu*** Ibuk*** Jaka**** 105** Gg.F******** no.** r* 00* r* 05* pag** hit** y* a* anji************ Ba** 105**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKP01-L61KXRTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:48:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631315306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 14:42:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahe Sushi | Sushi Gari Ginger Pink 100gr SHARE SIZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topp***********</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********6333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sus**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl.t***** 1 n* 1 R* 0* R* 0* bend***** ja** serd*** kema*************** 106**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GK-11-742213468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:57:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daesang Chung Jung One Anchovy Sauce- Kecap Ikan Teri 500g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CJO011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikkoman BBQ Sauce - Saus Barbekue 300 gr HALAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KBBQ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daging sapi - US Shortplate Beef Slice /pack +-500 Gram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian Salmon Fillet Frozen berat | Trout +- 200gram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAL200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daesang Sunchang Ssamjang Soybean Paste/ Saus Sambal Tauco- 500gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CJO023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631450299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 15:46:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesanan Diproses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narutomaki / Naruto/ Boiled Fish Cake- 160 gr pelengkap ramen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muha****</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********1274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gra** Gal*** Ru** Cord*** Bl** C RG** No* 17* Jaka****** Bek*** Sela**** 171** (Hak*** Cof*** ged*** war** puti********* Sela*** 171**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631566660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 16:46:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryushobo Gyoza No Kawa (Kulit Gyoza)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********8646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXO** REST****** -JL.***** NO** RT.** RW** -RA** BARA*********** Ba** 121**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631677919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 17:58:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokinnori Sakao Sushi Nori - Roasted Seaweed - Rumput Laut 20 lembar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAK20S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tit** seti***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*********1608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tit**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kont***** Pon*** Ali*** Jl* Dal*** Gg* Seti**** Rt* 1* Rw* 0* No* 1* Ke** Mun*** Ke** Cipa**** Jala*** Tim** (Kon****** N* 5B* kont***** ting*** war** biru********** 138**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INV/20231218/MPL/3631731052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 18:35:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar*** Prat***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*******4566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl* Nu** Ind** no.** Sumu****** Tel** Bet*** Uta*** Ban*** Lamp*** (ru*** put** bes** 2 ting**** no.** d* paga******** Bet*** Uta** 352**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota Bandar Lampung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lampung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paxel(Next Day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Day</t>
+  </si>
+  <si>
     <t xml:space="preserve">Formula:</t>
   </si>
   <si>
@@ -520,12 +1150,6 @@
     <t xml:space="preserve">18-12-2023 08:43:48</t>
   </si>
   <si>
-    <t xml:space="preserve">Pesanan Dikirim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kombu | Konbu | Dashima | Kelp | Dry Seaweed Dashi 50gr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mizkan Pon Shabu 250 ml</t>
   </si>
   <si>
@@ -536,6 +1160,9 @@
   </si>
   <si>
     <t xml:space="preserve">Shimadaya Ramen Taikoban- Mie Ramen 200 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPH5ADEC</t>
   </si>
   <si>
     <t xml:space="preserve">Informasi umum</t>
@@ -818,8 +1445,8 @@
   </sheetPr>
   <dimension ref="A1:AN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1614,18 +2241,22 @@
       <c r="D12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1659,47 +2290,47 @@
         <v>54</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="AD12" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ12" s="3" t="s">
         <v>66</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AN12" s="3" t="s">
         <v>69</v>
@@ -1707,16 +2338,16 @@
     </row>
     <row r="13" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1784,7 +2415,7 @@
         <v>108</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG13" s="3" t="s">
         <v>63</v>
@@ -1792,9 +2423,15 @@
       <c r="AH13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
+      <c r="AI13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3" t="s">
         <v>68</v>
@@ -1805,29 +2442,29 @@
     </row>
     <row r="14" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1861,41 +2498,47 @@
         <v>54</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AN14" s="3" t="s">
         <v>69</v>
@@ -1903,29 +2546,33 @@
     </row>
     <row r="15" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1959,38 +2606,44 @@
         <v>54</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
+      <c r="AI15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3" t="s">
         <v>68</v>
@@ -2002,26 +2655,30 @@
     <row r="16" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2055,38 +2712,44 @@
         <v>54</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
+      <c r="AI16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3" t="s">
         <v>68</v>
@@ -2098,26 +2761,30 @@
     <row r="17" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2151,38 +2818,44 @@
         <v>54</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
+      <c r="AI17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3" t="s">
         <v>68</v>
@@ -2193,29 +2866,29 @@
     </row>
     <row r="18" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2249,43 +2922,3023 @@
         <v>54</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
+      <c r="AI18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="AN18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>180000</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="R20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>13000</v>
+      </c>
+      <c r="R22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="R23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="R24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="R25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>145000</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>145000</v>
+      </c>
+      <c r="R26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>21000</v>
+      </c>
+      <c r="R27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>28000</v>
+      </c>
+      <c r="R28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>21000</v>
+      </c>
+      <c r="R30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>20500</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>20500</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>21000</v>
+      </c>
+      <c r="R32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK32" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="3" t="n">
+        <v>24000</v>
+      </c>
+      <c r="R33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI33" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>19500</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="3" t="n">
+        <v>19500</v>
+      </c>
+      <c r="R34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>32000</v>
+      </c>
+      <c r="R35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK35" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK36" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN37" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>22500</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="3" t="n">
+        <v>22500</v>
+      </c>
+      <c r="R38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK38" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN38" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>73500</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>73500</v>
+      </c>
+      <c r="R39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK39" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="R40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK40" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN40" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>56000</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="3" t="n">
+        <v>56000</v>
+      </c>
+      <c r="R41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK41" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN41" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3" t="n">
+        <v>36500</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="3" t="n">
+        <v>36500</v>
+      </c>
+      <c r="R42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK42" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" s="3" t="n">
+        <v>29000</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="3" t="n">
+        <v>29000</v>
+      </c>
+      <c r="R43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN43" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="3" t="n">
+        <v>24000</v>
+      </c>
+      <c r="R44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN44" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>39000</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>39000</v>
+      </c>
+      <c r="R45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN45" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>20500</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="3" t="n">
+        <v>20500</v>
+      </c>
+      <c r="R46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN46" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="R47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG47" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH47" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN47" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2312,7 +5965,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2355,10 +6008,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>145</v>
+        <v>355</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2408,33 +6061,33 @@
         <v>26</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>147</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>154</v>
+        <v>364</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>49</v>
@@ -2444,7 +6097,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -2461,7 +6114,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3.1</v>
@@ -2481,23 +6134,23 @@
     </row>
     <row r="9" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>367</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>1</v>
@@ -2514,7 +6167,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>3.1</v>
@@ -2535,20 +6188,20 @@
     <row r="10" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>1</v>
@@ -2565,7 +6218,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>4</v>
@@ -2585,23 +6238,23 @@
     </row>
     <row r="11" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>164</v>
+        <v>374</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>1</v>
@@ -2618,7 +6271,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="3" t="n">
         <v>3.1</v>
@@ -2639,20 +6292,20 @@
     <row r="12" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>164</v>
+        <v>374</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>167</v>
+        <v>375</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>1</v>
@@ -2669,7 +6322,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>3.1</v>
@@ -2690,20 +6343,20 @@
     <row r="13" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>164</v>
+        <v>374</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>1</v>
@@ -2720,7 +6373,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="3" t="n">
         <v>3.1</v>
@@ -2741,20 +6394,20 @@
     <row r="14" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>164</v>
+        <v>374</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>169</v>
+        <v>377</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>1</v>
@@ -2771,7 +6424,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>3.1</v>
@@ -2792,20 +6445,20 @@
     <row r="15" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>164</v>
+        <v>374</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>1</v>
@@ -2822,7 +6475,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>3.1</v>
@@ -2875,7 +6528,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="3" t="n">
         <v>3.1</v>
@@ -2926,7 +6579,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="3" t="n">
         <v>3.8</v>
@@ -2977,7 +6630,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q18" s="3" t="n">
         <v>3.1</v>
@@ -3028,7 +6681,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>4.5</v>
@@ -3079,7 +6732,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="3" t="n">
         <v>3.1</v>
@@ -3130,7 +6783,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q21" s="3" t="n">
         <v>4.5</v>
@@ -3161,12 +6814,16 @@
       <c r="D22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22" s="3" t="n">
         <v>15</v>
@@ -3175,15 +6832,15 @@
         <v>292500</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="3" t="n">
         <v>4.5</v>
@@ -3212,12 +6869,16 @@
       <c r="D23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23" s="3" t="n">
         <v>15</v>
@@ -3226,15 +6887,15 @@
         <v>292500</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="3" t="n">
         <v>4</v>
@@ -3254,16 +6915,16 @@
     </row>
     <row r="24" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3287,7 +6948,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>3.1</v>
@@ -3307,23 +6968,23 @@
     </row>
     <row r="25" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J25" s="3" t="n">
         <v>4</v>
@@ -3340,7 +7001,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>3.1</v>
@@ -3361,20 +7022,20 @@
     <row r="26" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J26" s="3" t="n">
         <v>4</v>
@@ -3391,7 +7052,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>4</v>
@@ -3411,23 +7072,27 @@
     </row>
     <row r="27" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J27" s="3" t="n">
         <v>2</v>
@@ -3444,7 +7109,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q27" s="3" t="n">
         <v>3.1</v>
@@ -3465,20 +7130,24 @@
     <row r="28" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J28" s="3" t="n">
         <v>1</v>
@@ -3495,7 +7164,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="3" t="n">
         <v>4.5</v>
@@ -3516,20 +7185,24 @@
     <row r="29" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J29" s="3" t="n">
         <v>1</v>
@@ -3546,7 +7219,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q29" s="3" t="n">
         <v>3.1</v>
@@ -3566,23 +7239,23 @@
     </row>
     <row r="30" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J30" s="3" t="n">
         <v>1</v>
@@ -3599,7 +7272,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="Q30" s="3" t="n">
         <v>3.1</v>
@@ -3614,6 +7287,2259 @@
         <v>364.09</v>
       </c>
       <c r="U30" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>180000</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>5580</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <v>5027.03</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <v>552.97</v>
+      </c>
+      <c r="U31" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>180000</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3" t="n">
+        <v>7200</v>
+      </c>
+      <c r="S32" s="3" t="n">
+        <v>6486.49</v>
+      </c>
+      <c r="T32" s="3" t="n">
+        <v>713.51</v>
+      </c>
+      <c r="U32" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q33" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R33" s="3" t="n">
+        <v>3255</v>
+      </c>
+      <c r="S33" s="3" t="n">
+        <v>2932.43</v>
+      </c>
+      <c r="T33" s="3" t="n">
+        <v>322.57</v>
+      </c>
+      <c r="U33" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q34" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" s="3" t="n">
+        <v>4200</v>
+      </c>
+      <c r="S34" s="3" t="n">
+        <v>3783.78</v>
+      </c>
+      <c r="T34" s="3" t="n">
+        <v>416.22</v>
+      </c>
+      <c r="U34" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R35" s="3" t="n">
+        <v>3255</v>
+      </c>
+      <c r="S35" s="3" t="n">
+        <v>2932.43</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>322.57</v>
+      </c>
+      <c r="U35" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" s="3" t="n">
+        <v>4200</v>
+      </c>
+      <c r="S36" s="3" t="n">
+        <v>3783.78</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>416.22</v>
+      </c>
+      <c r="U36" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R37" s="3" t="n">
+        <v>806</v>
+      </c>
+      <c r="S37" s="3" t="n">
+        <v>726.13</v>
+      </c>
+      <c r="T37" s="3" t="n">
+        <v>79.87</v>
+      </c>
+      <c r="U37" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q38" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" s="3" t="n">
+        <v>1040</v>
+      </c>
+      <c r="S38" s="3" t="n">
+        <v>936.94</v>
+      </c>
+      <c r="T38" s="3" t="n">
+        <v>103.06</v>
+      </c>
+      <c r="U38" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R39" s="3" t="n">
+        <v>1674</v>
+      </c>
+      <c r="S39" s="3" t="n">
+        <v>1508.11</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>165.89</v>
+      </c>
+      <c r="U39" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" s="3" t="n">
+        <v>2160</v>
+      </c>
+      <c r="S40" s="3" t="n">
+        <v>1945.95</v>
+      </c>
+      <c r="T40" s="3" t="n">
+        <v>214.05</v>
+      </c>
+      <c r="U40" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q41" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R41" s="3" t="n">
+        <v>1674</v>
+      </c>
+      <c r="S41" s="3" t="n">
+        <v>1508.11</v>
+      </c>
+      <c r="T41" s="3" t="n">
+        <v>165.89</v>
+      </c>
+      <c r="U41" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q42" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="n">
+        <v>2160</v>
+      </c>
+      <c r="S42" s="3" t="n">
+        <v>1945.94</v>
+      </c>
+      <c r="T42" s="3" t="n">
+        <v>214.06</v>
+      </c>
+      <c r="U42" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q43" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R43" s="3" t="n">
+        <v>1674</v>
+      </c>
+      <c r="S43" s="3" t="n">
+        <v>1508.11</v>
+      </c>
+      <c r="T43" s="3" t="n">
+        <v>165.89</v>
+      </c>
+      <c r="U43" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q44" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="n">
+        <v>2160</v>
+      </c>
+      <c r="S44" s="3" t="n">
+        <v>1945.95</v>
+      </c>
+      <c r="T44" s="3" t="n">
+        <v>214.05</v>
+      </c>
+      <c r="U44" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>725000</v>
+      </c>
+      <c r="L45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R45" s="3" t="n">
+        <v>32625</v>
+      </c>
+      <c r="S45" s="3" t="n">
+        <v>29391.89</v>
+      </c>
+      <c r="T45" s="3" t="n">
+        <v>3233.11</v>
+      </c>
+      <c r="U45" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>725000</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q46" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="n">
+        <v>29000</v>
+      </c>
+      <c r="S46" s="3" t="n">
+        <v>26126.13</v>
+      </c>
+      <c r="T46" s="3" t="n">
+        <v>2873.87</v>
+      </c>
+      <c r="U46" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>63000</v>
+      </c>
+      <c r="L47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q47" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R47" s="3" t="n">
+        <v>1953</v>
+      </c>
+      <c r="S47" s="3" t="n">
+        <v>1759.46</v>
+      </c>
+      <c r="T47" s="3" t="n">
+        <v>193.54</v>
+      </c>
+      <c r="U47" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>63000</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q48" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S48" s="3" t="n">
+        <v>2270.27</v>
+      </c>
+      <c r="T48" s="3" t="n">
+        <v>249.73</v>
+      </c>
+      <c r="U48" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q49" s="3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R49" s="3" t="n">
+        <v>1064</v>
+      </c>
+      <c r="S49" s="3" t="n">
+        <v>958.56</v>
+      </c>
+      <c r="T49" s="3" t="n">
+        <v>105.44</v>
+      </c>
+      <c r="U49" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q50" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R50" s="3" t="n">
+        <v>558</v>
+      </c>
+      <c r="S50" s="3" t="n">
+        <v>502.71</v>
+      </c>
+      <c r="T50" s="3" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="U50" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q51" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" s="3" t="n">
+        <v>720</v>
+      </c>
+      <c r="S51" s="3" t="n">
+        <v>648.65</v>
+      </c>
+      <c r="T51" s="3" t="n">
+        <v>71.35</v>
+      </c>
+      <c r="U51" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q52" s="3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R52" s="3" t="n">
+        <v>1890</v>
+      </c>
+      <c r="S52" s="3" t="n">
+        <v>1702.7</v>
+      </c>
+      <c r="T52" s="3" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="U52" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q53" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" s="3" t="n">
+        <v>1680</v>
+      </c>
+      <c r="S53" s="3" t="n">
+        <v>1513.51</v>
+      </c>
+      <c r="T53" s="3" t="n">
+        <v>166.49</v>
+      </c>
+      <c r="U53" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>20500</v>
+      </c>
+      <c r="L54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q54" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R54" s="3" t="n">
+        <v>636</v>
+      </c>
+      <c r="S54" s="3" t="n">
+        <v>572.97</v>
+      </c>
+      <c r="T54" s="3" t="n">
+        <v>63.03</v>
+      </c>
+      <c r="U54" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q55" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R55" s="3" t="n">
+        <v>651</v>
+      </c>
+      <c r="S55" s="3" t="n">
+        <v>586.49</v>
+      </c>
+      <c r="T55" s="3" t="n">
+        <v>64.51</v>
+      </c>
+      <c r="U55" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>72000</v>
+      </c>
+      <c r="L56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q56" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R56" s="3" t="n">
+        <v>2232</v>
+      </c>
+      <c r="S56" s="3" t="n">
+        <v>2010.81</v>
+      </c>
+      <c r="T56" s="3" t="n">
+        <v>221.19</v>
+      </c>
+      <c r="U56" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>19500</v>
+      </c>
+      <c r="L57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q57" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R57" s="3" t="n">
+        <v>605</v>
+      </c>
+      <c r="S57" s="3" t="n">
+        <v>545.05</v>
+      </c>
+      <c r="T57" s="3" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="U57" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>64000</v>
+      </c>
+      <c r="L58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q58" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R58" s="3" t="n">
+        <v>1984</v>
+      </c>
+      <c r="S58" s="3" t="n">
+        <v>1787.39</v>
+      </c>
+      <c r="T58" s="3" t="n">
+        <v>196.61</v>
+      </c>
+      <c r="U58" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J59" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" s="3" t="n">
+        <v>64000</v>
+      </c>
+      <c r="L59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q59" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="n">
+        <v>2560</v>
+      </c>
+      <c r="S59" s="3" t="n">
+        <v>2306.31</v>
+      </c>
+      <c r="T59" s="3" t="n">
+        <v>253.69</v>
+      </c>
+      <c r="U59" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q60" s="3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R60" s="3" t="n">
+        <v>380</v>
+      </c>
+      <c r="S60" s="3" t="n">
+        <v>342.34</v>
+      </c>
+      <c r="T60" s="3" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="U60" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q61" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R61" s="3" t="n">
+        <v>930</v>
+      </c>
+      <c r="S61" s="3" t="n">
+        <v>837.84</v>
+      </c>
+      <c r="T61" s="3" t="n">
+        <v>92.16</v>
+      </c>
+      <c r="U61" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>22500</v>
+      </c>
+      <c r="L62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q62" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R62" s="3" t="n">
+        <v>698</v>
+      </c>
+      <c r="S62" s="3" t="n">
+        <v>628.83</v>
+      </c>
+      <c r="T62" s="3" t="n">
+        <v>69.17</v>
+      </c>
+      <c r="U62" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3" t="n">
+        <v>73500</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q63" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R63" s="3" t="n">
+        <v>2279</v>
+      </c>
+      <c r="S63" s="3" t="n">
+        <v>2053.15</v>
+      </c>
+      <c r="T63" s="3" t="n">
+        <v>225.85</v>
+      </c>
+      <c r="U63" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>105000</v>
+      </c>
+      <c r="L64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q64" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R64" s="3" t="n">
+        <v>3255</v>
+      </c>
+      <c r="S64" s="3" t="n">
+        <v>2932.43</v>
+      </c>
+      <c r="T64" s="3" t="n">
+        <v>322.57</v>
+      </c>
+      <c r="U64" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J65" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" s="3" t="n">
+        <v>112000</v>
+      </c>
+      <c r="L65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q65" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R65" s="3" t="n">
+        <v>3472</v>
+      </c>
+      <c r="S65" s="3" t="n">
+        <v>3127.93</v>
+      </c>
+      <c r="T65" s="3" t="n">
+        <v>344.07</v>
+      </c>
+      <c r="U65" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3" t="n">
+        <v>36500</v>
+      </c>
+      <c r="L66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q66" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R66" s="3" t="n">
+        <v>1132</v>
+      </c>
+      <c r="S66" s="3" t="n">
+        <v>1019.82</v>
+      </c>
+      <c r="T66" s="3" t="n">
+        <v>112.18</v>
+      </c>
+      <c r="U66" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J67" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K67" s="3" t="n">
+        <v>290000</v>
+      </c>
+      <c r="L67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q67" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R67" s="3" t="n">
+        <v>8990</v>
+      </c>
+      <c r="S67" s="3" t="n">
+        <v>8099.1</v>
+      </c>
+      <c r="T67" s="3" t="n">
+        <v>890.9</v>
+      </c>
+      <c r="U67" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J68" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>48000</v>
+      </c>
+      <c r="L68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q68" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R68" s="3" t="n">
+        <v>1488</v>
+      </c>
+      <c r="S68" s="3" t="n">
+        <v>1340.54</v>
+      </c>
+      <c r="T68" s="3" t="n">
+        <v>147.46</v>
+      </c>
+      <c r="U68" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q69" s="3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R69" s="3" t="n">
+        <v>1482</v>
+      </c>
+      <c r="S69" s="3" t="n">
+        <v>1335.14</v>
+      </c>
+      <c r="T69" s="3" t="n">
+        <v>146.86</v>
+      </c>
+      <c r="U69" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q70" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" s="3" t="n">
+        <v>1560</v>
+      </c>
+      <c r="S70" s="3" t="n">
+        <v>1405.4</v>
+      </c>
+      <c r="T70" s="3" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="U70" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>20500</v>
+      </c>
+      <c r="L71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q71" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R71" s="3" t="n">
+        <v>636</v>
+      </c>
+      <c r="S71" s="3" t="n">
+        <v>572.97</v>
+      </c>
+      <c r="T71" s="3" t="n">
+        <v>63.03</v>
+      </c>
+      <c r="U71" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>20500</v>
+      </c>
+      <c r="L72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q72" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="n">
+        <v>820</v>
+      </c>
+      <c r="S72" s="3" t="n">
+        <v>738.74</v>
+      </c>
+      <c r="T72" s="3" t="n">
+        <v>81.26</v>
+      </c>
+      <c r="U72" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>54000</v>
+      </c>
+      <c r="L73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q73" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R73" s="3" t="n">
+        <v>1674</v>
+      </c>
+      <c r="S73" s="3" t="n">
+        <v>1508.11</v>
+      </c>
+      <c r="T73" s="3" t="n">
+        <v>165.89</v>
+      </c>
+      <c r="U73" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3647,10 +9573,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>172</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,7 +9584,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>173</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,39 +9592,39 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>174</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>175</v>
+        <v>384</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>176</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>177</v>
+        <v>386</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>178</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>179</v>
+        <v>388</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>180</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>181</v>
+        <v>390</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>182</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,31 +9632,31 @@
         <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>184</v>
+        <v>393</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>185</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>186</v>
+        <v>395</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>187</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>188</v>
+        <v>397</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>189</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,87 +9664,87 @@
         <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>190</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>191</v>
+        <v>400</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>192</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>193</v>
+        <v>402</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>194</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>195</v>
+        <v>404</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>196</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>197</v>
+        <v>406</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>198</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>199</v>
+        <v>408</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>200</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>201</v>
+        <v>410</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>202</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>203</v>
+        <v>412</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>204</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>205</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>206</v>
+        <v>415</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>207</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>209</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
